--- a/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
+++ b/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D293">
@@ -12668,19 +12668,19 @@
         <v>999</v>
       </c>
       <c r="H293">
-        <v>0.01415612026122193</v>
+        <v>0.02851263626329414</v>
       </c>
       <c r="I293">
-        <v>0.0003107095956682665</v>
+        <v>0.0006302160761417243</v>
       </c>
       <c r="J293">
-        <v>1.415612026122193</v>
+        <v>2.851263626329414</v>
       </c>
       <c r="K293">
-        <v>0.03107095956682665</v>
+        <v>0.06302160761417243</v>
       </c>
       <c r="L293">
-        <v>45.56061498768744</v>
+        <v>45.24263557009321</v>
       </c>
     </row>
     <row r="294">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D294">
@@ -12710,19 +12710,19 @@
         <v>0.002</v>
       </c>
       <c r="H294">
-        <v>0.01997548050458486</v>
+        <v>0.04034998083055874</v>
       </c>
       <c r="I294">
-        <v>0.001811679361464627</v>
+        <v>0.003695737054460244</v>
       </c>
       <c r="J294">
-        <v>1.997548050458486</v>
+        <v>4.034998083055874</v>
       </c>
       <c r="K294">
-        <v>0.1811679361464627</v>
+        <v>0.3695737054460244</v>
       </c>
       <c r="L294">
-        <v>11.02594693601629</v>
+        <v>10.91797934646403</v>
       </c>
     </row>
     <row r="295">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D295">
@@ -12752,19 +12752,19 @@
         <v>0.012</v>
       </c>
       <c r="H295">
-        <v>0.0114977284621034</v>
+        <v>0.02312765468399514</v>
       </c>
       <c r="I295">
-        <v>0.0003148141078313424</v>
+        <v>0.0006368675099184532</v>
       </c>
       <c r="J295">
-        <v>1.14977284621034</v>
+        <v>2.312765468399514</v>
       </c>
       <c r="K295">
-        <v>0.03148141078313425</v>
+        <v>0.06368675099184533</v>
       </c>
       <c r="L295">
-        <v>36.52227830991346</v>
+        <v>36.3147033312415</v>
       </c>
     </row>
     <row r="296">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D296">
@@ -12794,19 +12794,19 @@
         <v>0.002</v>
       </c>
       <c r="H296">
-        <v>0.001494405741624405</v>
+        <v>0.002991044731769588</v>
       </c>
       <c r="I296">
-        <v>0.002646830276158902</v>
+        <v>0.005301571429041398</v>
       </c>
       <c r="J296">
-        <v>0.1494405741624405</v>
+        <v>0.2991044731769588</v>
       </c>
       <c r="K296">
-        <v>0.2646830276158902</v>
+        <v>0.5301571429041398</v>
       </c>
       <c r="L296">
-        <v>0.5646020279747959</v>
+        <v>0.5641807852262423</v>
       </c>
     </row>
     <row r="297">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D297">
@@ -12836,19 +12836,19 @@
         <v>0.016</v>
       </c>
       <c r="H297">
-        <v>0.01493141102512885</v>
+        <v>0.03008576908545901</v>
       </c>
       <c r="I297">
-        <v>0.0004642870132777351</v>
+        <v>0.0009424389470132288</v>
       </c>
       <c r="J297">
-        <v>1.493141102512885</v>
+        <v>3.008576908545901</v>
       </c>
       <c r="K297">
-        <v>0.04642870132777351</v>
+        <v>0.09424389470132288</v>
       </c>
       <c r="L297">
-        <v>32.15987223014771</v>
+        <v>31.92330832761807</v>
       </c>
     </row>
     <row r="298">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D298">
@@ -12878,19 +12878,19 @@
         <v>0.003</v>
       </c>
       <c r="H298">
-        <v>-0.001841793040310402</v>
+        <v>-0.003680193879017413</v>
       </c>
       <c r="I298">
-        <v>0.002523150169261097</v>
+        <v>0.005037006097679386</v>
       </c>
       <c r="J298">
-        <v>-0.1841793040310402</v>
+        <v>-0.3680193879017413</v>
       </c>
       <c r="K298">
-        <v>0.2523150169261096</v>
+        <v>0.5037006097679385</v>
       </c>
       <c r="L298">
-        <v>-0.7299577578649512</v>
+        <v>-0.730631213790455</v>
       </c>
     </row>
     <row r="299">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D299">
@@ -12920,19 +12920,19 @@
         <v>0.015</v>
       </c>
       <c r="H299">
-        <v>0.01368951950366637</v>
+        <v>0.02756644195157376</v>
       </c>
       <c r="I299">
-        <v>0.0004671380274210444</v>
+        <v>0.0009470658451166579</v>
       </c>
       <c r="J299">
-        <v>1.368951950366637</v>
+        <v>2.756644195157376</v>
       </c>
       <c r="K299">
-        <v>0.04671380274210443</v>
+        <v>0.09470658451166579</v>
       </c>
       <c r="L299">
-        <v>29.30508479312396</v>
+        <v>29.10720737498265</v>
       </c>
     </row>
     <row r="300">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D300">
@@ -12962,19 +12962,19 @@
         <v>0.003</v>
       </c>
       <c r="H300">
-        <v>-0.01577593298163715</v>
+        <v>-0.03130298590183311</v>
       </c>
       <c r="I300">
-        <v>0.003970100747048767</v>
+        <v>0.007814937407465958</v>
       </c>
       <c r="J300">
-        <v>-1.577593298163715</v>
+        <v>-3.130298590183311</v>
       </c>
       <c r="K300">
-        <v>0.3970100747048767</v>
+        <v>0.7814937407465958</v>
       </c>
       <c r="L300">
-        <v>-3.973685804664888</v>
+        <v>-4.005532516732377</v>
       </c>
     </row>
     <row r="301">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D301">
@@ -13004,19 +13004,19 @@
         <v>0.022</v>
       </c>
       <c r="H301">
-        <v>0.008484644669468189</v>
+        <v>0.01704127853410342</v>
       </c>
       <c r="I301">
-        <v>0.000479317796896135</v>
+        <v>0.000966769276173102</v>
       </c>
       <c r="J301">
-        <v>0.8484644669468189</v>
+        <v>1.704127853410342</v>
       </c>
       <c r="K301">
-        <v>0.0479317796896135</v>
+        <v>0.0966769276173102</v>
       </c>
       <c r="L301">
-        <v>17.70150143477096</v>
+        <v>17.6270377577164</v>
       </c>
     </row>
     <row r="302">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D302">
@@ -13046,19 +13046,19 @@
         <v>0.003</v>
       </c>
       <c r="H302">
-        <v>0.03397935540207309</v>
+        <v>0.06911330739768662</v>
       </c>
       <c r="I302">
-        <v>0.003525570633531346</v>
+        <v>0.007290734502166439</v>
       </c>
       <c r="J302">
-        <v>3.397935540207309</v>
+        <v>6.911330739768662</v>
       </c>
       <c r="K302">
-        <v>0.3525570633531346</v>
+        <v>0.7290734502166438</v>
       </c>
       <c r="L302">
-        <v>9.637973234431577</v>
+        <v>9.479608313421595</v>
       </c>
     </row>
     <row r="303">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D303">
@@ -13088,19 +13088,19 @@
         <v>0.025</v>
       </c>
       <c r="H303">
-        <v>0.006073692061800084</v>
+        <v>0.01218427385886178</v>
       </c>
       <c r="I303">
-        <v>0.0004850885689786886</v>
+        <v>0.000976069695138729</v>
       </c>
       <c r="J303">
-        <v>0.6073692061800084</v>
+        <v>1.218427385886178</v>
       </c>
       <c r="K303">
-        <v>0.04850885689786886</v>
+        <v>0.0976069695138729</v>
       </c>
       <c r="L303">
-        <v>12.52078991386606</v>
+        <v>12.48299575280844</v>
       </c>
     </row>
     <row r="304">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D304">
@@ -13130,19 +13130,19 @@
         <v>0.003</v>
       </c>
       <c r="H304">
-        <v>0.03510447283874352</v>
+        <v>0.07144126969077313</v>
       </c>
       <c r="I304">
-        <v>0.004909032052758269</v>
+        <v>0.01016272207023768</v>
       </c>
       <c r="J304">
-        <v>3.510447283874352</v>
+        <v>7.144126969077313</v>
       </c>
       <c r="K304">
-        <v>0.4909032052758269</v>
+        <v>1.016272207023768</v>
       </c>
       <c r="L304">
-        <v>7.150996868928396</v>
+        <v>7.029737623150632</v>
       </c>
     </row>
     <row r="305">
@@ -13156,14 +13156,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D305">
         <v>0.0968</v>
       </c>
       <c r="E305">
-        <v>0.000968</v>
+        <v>0.004</v>
       </c>
       <c r="F305">
         <v>999</v>
@@ -13172,19 +13172,19 @@
         <v>999</v>
       </c>
       <c r="H305">
-        <v>0.007729456644870902</v>
+        <v>0.0155186577897668</v>
       </c>
       <c r="I305">
-        <v>7.4115769665712e-05</v>
+        <v>0.0006172615230912756</v>
       </c>
       <c r="J305">
-        <v>0.7729456644870902</v>
+        <v>1.55186577897668</v>
       </c>
       <c r="K305">
-        <v>0.0074115769665712</v>
+        <v>0.06172615230912756</v>
       </c>
       <c r="L305">
-        <v>104.288961441451</v>
+        <v>25.14113906217353</v>
       </c>
     </row>
     <row r="306">
@@ -13194,39 +13194,39 @@
         </is>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D306">
         <v>0.137</v>
       </c>
       <c r="E306">
-        <v>0.00137</v>
+        <v>0.004</v>
       </c>
       <c r="F306">
         <v>0.0968</v>
       </c>
       <c r="G306">
-        <v>0.000968</v>
+        <v>0.004</v>
       </c>
       <c r="H306">
-        <v>0.009213125868991812</v>
+        <v>0.01990195607224909</v>
       </c>
       <c r="I306">
-        <v>8.685902641289852e-05</v>
+        <v>0.002773234336797199</v>
       </c>
       <c r="J306">
-        <v>0.9213125868991812</v>
+        <v>1.990195607224909</v>
       </c>
       <c r="K306">
-        <v>0.008685902641289852</v>
+        <v>0.27732343367972</v>
       </c>
       <c r="L306">
-        <v>106.0698726370213</v>
+        <v>7.176442253067516</v>
       </c>
     </row>
     <row r="307">
@@ -13236,39 +13236,39 @@
         </is>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D307">
         <v>0.269</v>
       </c>
       <c r="E307">
-        <v>0.00269</v>
+        <v>0.005</v>
       </c>
       <c r="F307">
-        <v>0.137</v>
+        <v>0.0968</v>
       </c>
       <c r="G307">
-        <v>0.00137</v>
+        <v>0.004</v>
       </c>
       <c r="H307">
-        <v>0.01500072247930229</v>
+        <v>0.04051999278931673</v>
       </c>
       <c r="I307">
-        <v>0.0001344735984766215</v>
+        <v>0.001420956062396077</v>
       </c>
       <c r="J307">
-        <v>1.500072247930229</v>
+        <v>4.051999278931673</v>
       </c>
       <c r="K307">
-        <v>0.01344735984766215</v>
+        <v>0.1420956062396077</v>
       </c>
       <c r="L307">
-        <v>111.5514320226225</v>
+        <v>28.51600683626359</v>
       </c>
     </row>
     <row r="308">
@@ -13282,35 +13282,35 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D308">
         <v>0.103</v>
       </c>
       <c r="E308">
-        <v>0.00103</v>
+        <v>0.004</v>
       </c>
       <c r="F308">
         <v>0.269</v>
       </c>
       <c r="G308">
-        <v>0.00269</v>
+        <v>0.005</v>
       </c>
       <c r="H308">
-        <v>0.008202939602493631</v>
+        <v>0.01647316742310911</v>
       </c>
       <c r="I308">
-        <v>7.845640886903659e-05</v>
+        <v>0.0006143687926401384</v>
       </c>
       <c r="J308">
-        <v>0.8202939602493631</v>
+        <v>1.647316742310911</v>
       </c>
       <c r="K308">
-        <v>0.007845640886903659</v>
+        <v>0.06143687926401385</v>
       </c>
       <c r="L308">
-        <v>104.5541048939213</v>
+        <v>26.81315786291596</v>
       </c>
     </row>
     <row r="309">
@@ -13320,39 +13320,39 @@
         </is>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D309">
         <v>0.145</v>
       </c>
       <c r="E309">
-        <v>0.00145</v>
+        <v>0.004</v>
       </c>
       <c r="F309">
         <v>0.103</v>
       </c>
       <c r="G309">
-        <v>0.00103</v>
+        <v>0.004</v>
       </c>
       <c r="H309">
-        <v>0.009718682407609425</v>
+        <v>0.02078401241398753</v>
       </c>
       <c r="I309">
-        <v>9.133450339931586e-05</v>
+        <v>0.002770837993492297</v>
       </c>
       <c r="J309">
-        <v>0.9718682407609425</v>
+        <v>2.078401241398753</v>
       </c>
       <c r="K309">
-        <v>0.009133450339931586</v>
+        <v>0.2770837993492298</v>
       </c>
       <c r="L309">
-        <v>106.4075682890528</v>
+        <v>7.50098434581946</v>
       </c>
     </row>
     <row r="310">
@@ -13362,39 +13362,39 @@
         </is>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D310">
         <v>0.284</v>
       </c>
       <c r="E310">
-        <v>0.00284</v>
+        <v>0.005</v>
       </c>
       <c r="F310">
-        <v>0.145</v>
+        <v>0.103</v>
       </c>
       <c r="G310">
-        <v>0.00145</v>
+        <v>0.004</v>
       </c>
       <c r="H310">
-        <v>0.01574645193409396</v>
+        <v>0.04246738028188335</v>
       </c>
       <c r="I310">
-        <v>0.0001404166629426025</v>
+        <v>0.001413007652289596</v>
       </c>
       <c r="J310">
-        <v>1.574645193409396</v>
+        <v>4.246738028188335</v>
       </c>
       <c r="K310">
-        <v>0.01404166629426025</v>
+        <v>0.1413007652289597</v>
       </c>
       <c r="L310">
-        <v>112.1409069558259</v>
+        <v>30.05460035058582</v>
       </c>
     </row>
     <row r="311">
@@ -13408,35 +13408,35 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D311">
         <v>0.09939999999999999</v>
       </c>
       <c r="E311">
-        <v>0.0009939999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="F311">
         <v>0.284</v>
       </c>
       <c r="G311">
-        <v>0.00284</v>
+        <v>0.005</v>
       </c>
       <c r="H311">
-        <v>0.007928311964275681</v>
+        <v>0.01591948205915439</v>
       </c>
       <c r="I311">
-        <v>7.594147884395199e-05</v>
+        <v>0.0006160448014426987</v>
       </c>
       <c r="J311">
-        <v>0.7928311964275681</v>
+        <v>1.591948205915439</v>
       </c>
       <c r="K311">
-        <v>0.007594147884395199</v>
+        <v>0.06160448014426987</v>
       </c>
       <c r="L311">
-        <v>104.4002840735711</v>
+        <v>25.84143559343896</v>
       </c>
     </row>
     <row r="312">
@@ -13446,39 +13446,39 @@
         </is>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D312">
         <v>0.139</v>
       </c>
       <c r="E312">
-        <v>0.00139</v>
+        <v>0.004</v>
       </c>
       <c r="F312">
         <v>0.09939999999999999</v>
       </c>
       <c r="G312">
-        <v>0.0009939999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="H312">
-        <v>0.009339823927409174</v>
+        <v>0.01960776772247086</v>
       </c>
       <c r="I312">
-        <v>8.798334097949948e-05</v>
+        <v>0.002774034500604222</v>
       </c>
       <c r="J312">
-        <v>0.9339823927409174</v>
+        <v>1.960776772247086</v>
       </c>
       <c r="K312">
-        <v>0.008798334097949948</v>
+        <v>0.2774034500604222</v>
       </c>
       <c r="L312">
-        <v>106.1544585989909</v>
+        <v>7.068321507248746</v>
       </c>
     </row>
     <row r="313">
@@ -13488,39 +13488,39 @@
         </is>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D313">
         <v>0.277</v>
       </c>
       <c r="E313">
-        <v>0.00277</v>
+        <v>0.005</v>
       </c>
       <c r="F313">
-        <v>0.139</v>
+        <v>0.09939999999999999</v>
       </c>
       <c r="G313">
-        <v>0.00139</v>
+        <v>0.004</v>
       </c>
       <c r="H313">
-        <v>0.01539946695016425</v>
+        <v>0.04171627485608709</v>
       </c>
       <c r="I313">
-        <v>0.0001376593834892304</v>
+        <v>0.001416066306058779</v>
       </c>
       <c r="J313">
-        <v>1.539946695016425</v>
+        <v>4.171627485608709</v>
       </c>
       <c r="K313">
-        <v>0.01376593834892304</v>
+        <v>0.1416066306058779</v>
       </c>
       <c r="L313">
-        <v>111.8664529786232</v>
+        <v>29.45926661597689</v>
       </c>
     </row>
     <row r="314">
@@ -13534,35 +13534,35 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D314">
         <v>0.055</v>
       </c>
       <c r="E314">
-        <v>0.00055</v>
+        <v>0.01</v>
       </c>
       <c r="F314">
         <v>0.277</v>
       </c>
       <c r="G314">
-        <v>0.00277</v>
+        <v>0.005</v>
       </c>
       <c r="H314">
-        <v>0.004471698917043021</v>
+        <v>0.008963393925290664</v>
       </c>
       <c r="I314">
-        <v>4.363818597190945e-05</v>
+        <v>0.001593939010940428</v>
       </c>
       <c r="J314">
-        <v>0.4471698917043021</v>
+        <v>0.8963393925290664</v>
       </c>
       <c r="K314">
-        <v>0.004363818597190945</v>
+        <v>0.1593939010940428</v>
       </c>
       <c r="L314">
-        <v>102.4721540881997</v>
+        <v>5.623423395605482</v>
       </c>
     </row>
     <row r="315">
@@ -13572,39 +13572,39 @@
         </is>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D315">
         <v>0.11</v>
       </c>
       <c r="E315">
-        <v>0.0011</v>
+        <v>0.012</v>
       </c>
       <c r="F315">
         <v>0.055</v>
       </c>
       <c r="G315">
-        <v>0.00055</v>
+        <v>0.01</v>
       </c>
       <c r="H315">
-        <v>0.007482139168268898</v>
+        <v>0.02713192920870688</v>
       </c>
       <c r="I315">
-        <v>7.131469453572044e-05</v>
+        <v>0.007603940111104908</v>
       </c>
       <c r="J315">
-        <v>0.7482139168268898</v>
+        <v>2.713192920870688</v>
       </c>
       <c r="K315">
-        <v>0.007131469453572044</v>
+        <v>0.7603940111104909</v>
       </c>
       <c r="L315">
-        <v>104.9172154067239</v>
+        <v>3.568140833866249</v>
       </c>
     </row>
     <row r="316">
@@ -13614,39 +13614,39 @@
         </is>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D316">
         <v>0.219</v>
       </c>
       <c r="E316">
-        <v>0.00219</v>
+        <v>0.017</v>
       </c>
       <c r="F316">
-        <v>0.11</v>
+        <v>0.055</v>
       </c>
       <c r="G316">
-        <v>0.0011</v>
+        <v>0.01</v>
       </c>
       <c r="H316">
-        <v>0.0124538393118927</v>
+        <v>0.03869548797561162</v>
       </c>
       <c r="I316">
-        <v>0.0001136830346643276</v>
+        <v>0.004399973634324998</v>
       </c>
       <c r="J316">
-        <v>1.24538393118927</v>
+        <v>3.869548797561162</v>
       </c>
       <c r="K316">
-        <v>0.01136830346643276</v>
+        <v>0.4399973634324998</v>
       </c>
       <c r="L316">
-        <v>109.54879370229</v>
+        <v>8.794481783650031</v>
       </c>
     </row>
     <row r="317">
@@ -13660,35 +13660,35 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D317">
         <v>0.061</v>
       </c>
       <c r="E317">
-        <v>0.00061</v>
+        <v>0.01</v>
       </c>
       <c r="F317">
         <v>0.219</v>
       </c>
       <c r="G317">
-        <v>0.00219</v>
+        <v>0.017</v>
       </c>
       <c r="H317">
-        <v>0.004946515448805977</v>
+        <v>0.009917498912697331</v>
       </c>
       <c r="I317">
-        <v>4.814776739112249e-05</v>
+        <v>0.001586423969388466</v>
       </c>
       <c r="J317">
-        <v>0.4946515448805977</v>
+        <v>0.9917498912697331</v>
       </c>
       <c r="K317">
-        <v>0.004814776739112249</v>
+        <v>0.1586423969388466</v>
       </c>
       <c r="L317">
-        <v>102.7361333002954</v>
+        <v>6.251480754240196</v>
       </c>
     </row>
     <row r="318">
@@ -13698,39 +13698,39 @@
         </is>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318">
         <v>0.122</v>
       </c>
       <c r="E318">
-        <v>0.00122</v>
+        <v>0.012</v>
       </c>
       <c r="F318">
         <v>0.061</v>
       </c>
       <c r="G318">
-        <v>0.00061</v>
+        <v>0.01</v>
       </c>
       <c r="H318">
-        <v>0.008256239668180676</v>
+        <v>0.03004854254544709</v>
       </c>
       <c r="I318">
-        <v>7.830867153012354e-05</v>
+        <v>0.007582409326657588</v>
       </c>
       <c r="J318">
-        <v>0.8256239668180676</v>
+        <v>3.004854254544709</v>
       </c>
       <c r="K318">
-        <v>0.007830867153012355</v>
+        <v>0.7582409326657589</v>
       </c>
       <c r="L318">
-        <v>105.4319975917953</v>
+        <v>3.962928041856693</v>
       </c>
     </row>
     <row r="319">
@@ -13740,39 +13740,39 @@
         </is>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D319">
         <v>0.246</v>
       </c>
       <c r="E319">
-        <v>0.00246</v>
+        <v>0.017</v>
       </c>
       <c r="F319">
-        <v>0.122</v>
+        <v>0.061</v>
       </c>
       <c r="G319">
-        <v>0.00122</v>
+        <v>0.01</v>
       </c>
       <c r="H319">
-        <v>0.01384106400653473</v>
+        <v>0.04334896024957158</v>
       </c>
       <c r="I319">
-        <v>0.0001251027797680616</v>
+        <v>0.004341362460117689</v>
       </c>
       <c r="J319">
-        <v>1.384106400653473</v>
+        <v>4.334896024957158</v>
       </c>
       <c r="K319">
-        <v>0.01251027797680616</v>
+        <v>0.4341362460117689</v>
       </c>
       <c r="L319">
-        <v>110.6375416453242</v>
+        <v>9.985105055797723</v>
       </c>
     </row>
     <row r="320">
@@ -13786,35 +13786,35 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D320">
         <v>0.048</v>
       </c>
       <c r="E320">
-        <v>0.00048</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="F320">
         <v>0.246</v>
       </c>
       <c r="G320">
-        <v>0.00246</v>
+        <v>0.017</v>
       </c>
       <c r="H320">
-        <v>0.003914607630530309</v>
+        <v>0.00784453941396146</v>
       </c>
       <c r="I320">
-        <v>3.831735143627978e-05</v>
+        <v>0.001442525581222273</v>
       </c>
       <c r="J320">
-        <v>0.3914607630530309</v>
+        <v>0.784453941396146</v>
       </c>
       <c r="K320">
-        <v>0.003831735143627978</v>
+        <v>0.1442525581222273</v>
       </c>
       <c r="L320">
-        <v>102.1627926721434</v>
+        <v>5.438059134670365</v>
       </c>
     </row>
     <row r="321">
@@ -13824,39 +13824,39 @@
         </is>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D321">
         <v>0.108</v>
       </c>
       <c r="E321">
-        <v>0.00108</v>
+        <v>0.011</v>
       </c>
       <c r="F321">
         <v>0.048</v>
       </c>
       <c r="G321">
-        <v>0.00048</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="H321">
-        <v>0.007352367491729517</v>
+        <v>0.02956301409869999</v>
       </c>
       <c r="I321">
-        <v>7.013541496203376e-05</v>
+        <v>0.006902282914656735</v>
       </c>
       <c r="J321">
-        <v>0.7352367491729517</v>
+        <v>2.956301409869999</v>
       </c>
       <c r="K321">
-        <v>0.007013541496203376</v>
+        <v>0.6902282914656734</v>
       </c>
       <c r="L321">
-        <v>104.8310257479699</v>
+        <v>4.283077709829027</v>
       </c>
     </row>
     <row r="322">
@@ -13866,39 +13866,39 @@
         </is>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D322">
         <v>0.224</v>
       </c>
       <c r="E322">
-        <v>0.00224</v>
+        <v>0.016</v>
       </c>
       <c r="F322">
-        <v>0.108</v>
+        <v>0.048</v>
       </c>
       <c r="G322">
-        <v>0.00108</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="H322">
-        <v>0.01271289190448788</v>
+        <v>0.04136225058241694</v>
       </c>
       <c r="I322">
-        <v>0.000115833173910644</v>
+        <v>0.004063960403311093</v>
       </c>
       <c r="J322">
-        <v>1.271289190448788</v>
+        <v>4.136225058241694</v>
       </c>
       <c r="K322">
-        <v>0.0115833173910644</v>
+        <v>0.4063960403311093</v>
       </c>
       <c r="L322">
-        <v>109.7517358394656</v>
+        <v>10.17781830470524</v>
       </c>
     </row>
     <row r="323">
@@ -13912,35 +13912,35 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D323">
         <v>0.053</v>
       </c>
       <c r="E323">
-        <v>0.00053</v>
+        <v>0.011</v>
       </c>
       <c r="F323">
         <v>0.224</v>
       </c>
       <c r="G323">
-        <v>0.00224</v>
+        <v>0.016</v>
       </c>
       <c r="H323">
-        <v>0.004312876559829704</v>
+        <v>0.008644354023879863</v>
       </c>
       <c r="I323">
-        <v>4.212455085285769e-05</v>
+        <v>0.001756107612260633</v>
       </c>
       <c r="J323">
-        <v>0.4312876559829704</v>
+        <v>0.8644354023879863</v>
       </c>
       <c r="K323">
-        <v>0.004212455085285769</v>
+        <v>0.1756107612260633</v>
       </c>
       <c r="L323">
-        <v>102.3839179886976</v>
+        <v>4.922451200329351</v>
       </c>
     </row>
     <row r="324">
@@ -13950,39 +13950,39 @@
         </is>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324">
         <v>0.12</v>
       </c>
       <c r="E324">
-        <v>0.0012</v>
+        <v>0.013</v>
       </c>
       <c r="F324">
         <v>0.053</v>
       </c>
       <c r="G324">
-        <v>0.00053</v>
+        <v>0.011</v>
       </c>
       <c r="H324">
-        <v>0.008127758431387688</v>
+        <v>0.03295692068933831</v>
       </c>
       <c r="I324">
-        <v>7.715263457383067e-05</v>
+        <v>0.008243028351347862</v>
       </c>
       <c r="J324">
-        <v>0.8127758431387688</v>
+        <v>3.295692068933831</v>
       </c>
       <c r="K324">
-        <v>0.007715263457383066</v>
+        <v>0.8243028351347862</v>
       </c>
       <c r="L324">
-        <v>105.3464794336982</v>
+        <v>3.998156901152639</v>
       </c>
     </row>
     <row r="325">
@@ -13992,39 +13992,39 @@
         </is>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D325">
         <v>0.226</v>
       </c>
       <c r="E325">
-        <v>0.00226</v>
+        <v>0.018</v>
       </c>
       <c r="F325">
-        <v>0.12</v>
+        <v>0.053</v>
       </c>
       <c r="G325">
-        <v>0.0012</v>
+        <v>0.011</v>
       </c>
       <c r="H325">
-        <v>0.01281623525016795</v>
+        <v>0.04069748021458408</v>
       </c>
       <c r="I325">
-        <v>0.0001166886567937082</v>
+        <v>0.004678929538653747</v>
       </c>
       <c r="J325">
-        <v>1.281623525016795</v>
+        <v>4.069748021458408</v>
       </c>
       <c r="K325">
-        <v>0.01166886567937082</v>
+        <v>0.4678929538653747</v>
       </c>
       <c r="L325">
-        <v>109.8327429788274</v>
+        <v>8.698032291012836</v>
       </c>
     </row>
     <row r="326">

--- a/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
+++ b/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
@@ -22823,7 +22823,7 @@
         <v>0.161</v>
       </c>
       <c r="E535">
-        <v>3.41</v>
+        <v>0.04721407624633431</v>
       </c>
       <c r="F535">
         <v>999</v>
@@ -22835,16 +22835,16 @@
         <v>0.03030651004763296</v>
       </c>
       <c r="I535">
-        <v>0.6052274245068783</v>
+        <v>0.008379839814381316</v>
       </c>
       <c r="J535">
         <v>3.030651004763296</v>
       </c>
       <c r="K535">
-        <v>60.52274245068783</v>
+        <v>0.8379839814381316</v>
       </c>
       <c r="L535">
-        <v>0.05007458158778219</v>
+        <v>3.616597777396834</v>
       </c>
     </row>
     <row r="536">
@@ -22865,28 +22865,28 @@
         <v>0.476</v>
       </c>
       <c r="E536">
-        <v>9.76</v>
+        <v>0.04877049180327869</v>
       </c>
       <c r="F536">
         <v>0.161</v>
       </c>
       <c r="G536">
-        <v>3.41</v>
+        <v>0.04721407624633431</v>
       </c>
       <c r="H536">
         <v>0.03297670994569435</v>
       </c>
       <c r="I536">
-        <v>0.5692102918399942</v>
+        <v>0.002844330519725851</v>
       </c>
       <c r="J536">
         <v>3.297670994569435</v>
       </c>
       <c r="K536">
-        <v>56.92102918399942</v>
+        <v>0.2844330519725851</v>
       </c>
       <c r="L536">
-        <v>0.05793414212363565</v>
+        <v>11.59383894276562</v>
       </c>
     </row>
     <row r="537">
@@ -22907,28 +22907,28 @@
         <v>0.881</v>
       </c>
       <c r="E537">
-        <v>15.59</v>
+        <v>0.05651058370750481</v>
       </c>
       <c r="F537">
         <v>0.476</v>
       </c>
       <c r="G537">
-        <v>9.76</v>
+        <v>0.04877049180327869</v>
       </c>
       <c r="H537">
         <v>0.04027772616732284</v>
       </c>
       <c r="I537">
-        <v>0.5388732639204068</v>
+        <v>0.001953306137813373</v>
       </c>
       <c r="J537">
         <v>4.027772616732284</v>
       </c>
       <c r="K537">
-        <v>53.88732639204068</v>
+        <v>0.1953306137813373</v>
       </c>
       <c r="L537">
-        <v>0.07474433946545171</v>
+        <v>20.6202834197878</v>
       </c>
     </row>
     <row r="538">
@@ -22949,28 +22949,28 @@
         <v>0.134</v>
       </c>
       <c r="E538">
-        <v>2.26</v>
+        <v>0.05929203539823009</v>
       </c>
       <c r="F538">
         <v>0.881</v>
       </c>
       <c r="G538">
-        <v>15.59</v>
+        <v>0.05651058370750481</v>
       </c>
       <c r="H538">
         <v>0.02546917652858971</v>
       </c>
       <c r="I538">
-        <v>0.4087408005210957</v>
+        <v>0.01072348407663616</v>
       </c>
       <c r="J538">
         <v>2.546917652858971</v>
       </c>
       <c r="K538">
-        <v>40.87408005210957</v>
+        <v>1.072348407663616</v>
       </c>
       <c r="L538">
-        <v>0.06231131439807221</v>
+        <v>2.37508410014622</v>
       </c>
     </row>
     <row r="539">
@@ -22991,28 +22991,28 @@
         <v>0.444</v>
       </c>
       <c r="E539">
-        <v>8.1</v>
+        <v>0.05481481481481482</v>
       </c>
       <c r="F539">
         <v>0.134</v>
       </c>
       <c r="G539">
-        <v>2.26</v>
+        <v>0.05929203539823009</v>
       </c>
       <c r="H539">
         <v>0.03109164107541185</v>
       </c>
       <c r="I539">
-        <v>0.481985358535944</v>
+        <v>0.003261720761925913</v>
       </c>
       <c r="J539">
         <v>3.109164107541185</v>
       </c>
       <c r="K539">
-        <v>48.1985358535944</v>
+        <v>0.3261720761925913</v>
       </c>
       <c r="L539">
-        <v>0.06450743891858945</v>
+        <v>9.532281683442914</v>
       </c>
     </row>
     <row r="540">
@@ -23033,28 +23033,28 @@
         <v>1.013</v>
       </c>
       <c r="E540">
-        <v>17.3</v>
+        <v>0.05855491329479768</v>
       </c>
       <c r="F540">
         <v>0.444</v>
       </c>
       <c r="G540">
-        <v>8.1</v>
+        <v>0.05481481481481482</v>
       </c>
       <c r="H540">
         <v>0.04469673145721487</v>
       </c>
       <c r="I540">
-        <v>0.5611417490750689</v>
+        <v>0.001899283610588542</v>
       </c>
       <c r="J540">
         <v>4.469673145721487</v>
       </c>
       <c r="K540">
-        <v>56.11417490750689</v>
+        <v>0.1899283610588542</v>
       </c>
       <c r="L540">
-        <v>0.07965319196243834</v>
+        <v>23.53346872896167</v>
       </c>
     </row>
     <row r="541">
@@ -23075,28 +23075,28 @@
         <v>0.152</v>
       </c>
       <c r="E541">
-        <v>3.46</v>
+        <v>0.04393063583815029</v>
       </c>
       <c r="F541">
         <v>1.013</v>
       </c>
       <c r="G541">
-        <v>17.3</v>
+        <v>0.05855491329479768</v>
       </c>
       <c r="H541">
         <v>0.02870415935100823</v>
       </c>
       <c r="I541">
-        <v>0.6179368734990432</v>
+        <v>0.007845768716951331</v>
       </c>
       <c r="J541">
         <v>2.870415935100823</v>
       </c>
       <c r="K541">
-        <v>61.79368734990432</v>
+        <v>0.7845768716951331</v>
       </c>
       <c r="L541">
-        <v>0.04645160465740142</v>
+        <v>3.658552831029914</v>
       </c>
     </row>
     <row r="542">
@@ -23117,28 +23117,28 @@
         <v>0.438</v>
       </c>
       <c r="E542">
-        <v>9.27</v>
+        <v>0.04724919093851133</v>
       </c>
       <c r="F542">
         <v>0.152</v>
       </c>
       <c r="G542">
-        <v>3.46</v>
+        <v>0.04393063583815029</v>
       </c>
       <c r="H542">
         <v>0.03073393314127504</v>
       </c>
       <c r="I542">
-        <v>0.5537148562946002</v>
+        <v>0.002822284678592656</v>
       </c>
       <c r="J542">
         <v>3.073393314127504</v>
       </c>
       <c r="K542">
-        <v>55.37148562946002</v>
+        <v>0.2822284678592656</v>
       </c>
       <c r="L542">
-        <v>0.05550498201717611</v>
+        <v>10.88973531777122</v>
       </c>
     </row>
     <row r="543">
@@ -23159,28 +23159,28 @@
         <v>0.84</v>
       </c>
       <c r="E543">
-        <v>16.42</v>
+        <v>0.05115712545676004</v>
       </c>
       <c r="F543">
         <v>0.438</v>
       </c>
       <c r="G543">
-        <v>9.27</v>
+        <v>0.04724919093851133</v>
       </c>
       <c r="H543">
         <v>0.03884586135206236</v>
       </c>
       <c r="I543">
-        <v>0.5794106332676926</v>
+        <v>0.001805175545496719</v>
       </c>
       <c r="J543">
         <v>3.884586135206236</v>
       </c>
       <c r="K543">
-        <v>57.94106332676926</v>
+        <v>0.1805175545496719</v>
       </c>
       <c r="L543">
-        <v>0.06704374949590414</v>
+        <v>21.51915997808035</v>
       </c>
     </row>
     <row r="544">
@@ -23201,28 +23201,28 @@
         <v>0.178</v>
       </c>
       <c r="E544">
-        <v>3.22</v>
+        <v>0.05527950310559006</v>
       </c>
       <c r="F544">
         <v>0.84</v>
       </c>
       <c r="G544">
-        <v>16.42</v>
+        <v>0.05115712545676004</v>
       </c>
       <c r="H544">
         <v>0.03330625438513168</v>
       </c>
       <c r="I544">
-        <v>0.5648974769304116</v>
+        <v>0.009697904295128781</v>
       </c>
       <c r="J544">
         <v>3.330625438513168</v>
       </c>
       <c r="K544">
-        <v>56.48974769304116</v>
+        <v>0.9697904295128781</v>
       </c>
       <c r="L544">
-        <v>0.05895982146373545</v>
+        <v>3.434376476767386</v>
       </c>
     </row>
     <row r="545">
@@ -23243,28 +23243,28 @@
         <v>0.456</v>
       </c>
       <c r="E545">
-        <v>8.93</v>
+        <v>0.05106382978723405</v>
       </c>
       <c r="F545">
         <v>0.178</v>
       </c>
       <c r="G545">
-        <v>3.22</v>
+        <v>0.05527950310559006</v>
       </c>
       <c r="H545">
         <v>0.03180298808281434</v>
       </c>
       <c r="I545">
-        <v>0.527358097732345</v>
+        <v>0.003015557014504368</v>
       </c>
       <c r="J545">
         <v>3.180298808281434</v>
       </c>
       <c r="K545">
-        <v>52.7358097732345</v>
+        <v>0.3015557014504368</v>
       </c>
       <c r="L545">
-        <v>0.06030624772724285</v>
+        <v>10.54630634733379</v>
       </c>
     </row>
     <row r="546">
@@ -23285,28 +23285,28 @@
         <v>0.896</v>
       </c>
       <c r="E546">
-        <v>16.65</v>
+        <v>0.05381381381381382</v>
       </c>
       <c r="F546">
         <v>0.456</v>
       </c>
       <c r="G546">
-        <v>8.93</v>
+        <v>0.05106382978723405</v>
       </c>
       <c r="H546">
         <v>0.04079427772167832</v>
       </c>
       <c r="I546">
-        <v>0.571242903615043</v>
+        <v>0.001846291847303443</v>
       </c>
       <c r="J546">
         <v>4.079427772167832</v>
       </c>
       <c r="K546">
-        <v>57.12429036150431</v>
+        <v>0.1846291847303443</v>
       </c>
       <c r="L546">
-        <v>0.07141318949174959</v>
+        <v>22.09524879896936</v>
       </c>
     </row>
     <row r="547">
@@ -23327,28 +23327,28 @@
         <v>0.178</v>
       </c>
       <c r="E547">
-        <v>3.58</v>
+        <v>0.04972067039106145</v>
       </c>
       <c r="F547">
         <v>0.896</v>
       </c>
       <c r="G547">
-        <v>16.65</v>
+        <v>0.05381381381381382</v>
       </c>
       <c r="H547">
         <v>0.03330625438513168</v>
       </c>
       <c r="I547">
-        <v>0.6280537165872278</v>
+        <v>0.008722696041987339</v>
       </c>
       <c r="J547">
         <v>3.330625438513168</v>
       </c>
       <c r="K547">
-        <v>62.80537165872278</v>
+        <v>0.8722696041987339</v>
       </c>
       <c r="L547">
-        <v>0.05303090086961681</v>
+        <v>3.818344033176162</v>
       </c>
     </row>
     <row r="548">
@@ -23369,28 +23369,28 @@
         <v>0.439</v>
       </c>
       <c r="E548">
-        <v>6.3</v>
+        <v>0.06968253968253968</v>
       </c>
       <c r="F548">
         <v>0.178</v>
       </c>
       <c r="G548">
-        <v>3.58</v>
+        <v>0.04972067039106145</v>
       </c>
       <c r="H548">
         <v>0.03079364602685075</v>
       </c>
       <c r="I548">
-        <v>0.3760713441029163</v>
+        <v>0.004159620056971032</v>
       </c>
       <c r="J548">
         <v>3.079364602685075</v>
       </c>
       <c r="K548">
-        <v>37.60713441029163</v>
+        <v>0.4159620056971032</v>
       </c>
       <c r="L548">
-        <v>0.08188245796899567</v>
+        <v>7.402994890180952</v>
       </c>
     </row>
     <row r="549">
@@ -23411,28 +23411,28 @@
         <v>0.8169999999999999</v>
       </c>
       <c r="E549">
-        <v>12.02</v>
+        <v>0.06797004991680532</v>
       </c>
       <c r="F549">
         <v>0.439</v>
       </c>
       <c r="G549">
-        <v>6.3</v>
+        <v>0.06968253968253968</v>
       </c>
       <c r="H549">
         <v>0.03802946881757996</v>
       </c>
       <c r="I549">
-        <v>0.4291797679962614</v>
+        <v>0.002426902683360134</v>
       </c>
       <c r="J549">
         <v>3.802946881757996</v>
       </c>
       <c r="K549">
-        <v>42.91797679962614</v>
+        <v>0.2426902683360134</v>
       </c>
       <c r="L549">
-        <v>0.08860964950685009</v>
+        <v>15.66996034835925</v>
       </c>
     </row>
     <row r="550">
@@ -23453,28 +23453,28 @@
         <v>0.2</v>
       </c>
       <c r="E550">
-        <v>3.37</v>
+        <v>0.05934718100890208</v>
       </c>
       <c r="F550">
         <v>0.8169999999999999</v>
       </c>
       <c r="G550">
-        <v>12.02</v>
+        <v>0.06797004991680532</v>
       </c>
       <c r="H550">
         <v>0.03713728933664817</v>
       </c>
       <c r="I550">
-        <v>0.5825254441774174</v>
+        <v>0.01025852907355735</v>
       </c>
       <c r="J550">
         <v>3.713728933664817</v>
       </c>
       <c r="K550">
-        <v>58.25254441774174</v>
+        <v>1.025852907355735</v>
       </c>
       <c r="L550">
-        <v>0.06375221839294871</v>
+        <v>3.620137845334396</v>
       </c>
     </row>
     <row r="551">
@@ -23495,28 +23495,28 @@
         <v>0.533</v>
       </c>
       <c r="E551">
-        <v>8.85</v>
+        <v>0.06022598870056498</v>
       </c>
       <c r="F551">
         <v>0.2</v>
       </c>
       <c r="G551">
-        <v>3.37</v>
+        <v>0.05934718100890208</v>
       </c>
       <c r="H551">
         <v>0.03624356406823281</v>
       </c>
       <c r="I551">
-        <v>0.4985190009786835</v>
+        <v>0.003392519742368263</v>
       </c>
       <c r="J551">
         <v>3.624356406823281</v>
       </c>
       <c r="K551">
-        <v>49.85190009786835</v>
+        <v>0.3392519742368263</v>
       </c>
       <c r="L551">
-        <v>0.07270247271835198</v>
+        <v>10.68337602154432</v>
       </c>
     </row>
     <row r="552">
@@ -23537,28 +23537,28 @@
         <v>0.947</v>
       </c>
       <c r="E552">
-        <v>12.3</v>
+        <v>0.07699186991869918</v>
       </c>
       <c r="F552">
         <v>0.533</v>
       </c>
       <c r="G552">
-        <v>8.85</v>
+        <v>0.06022598870056498</v>
       </c>
       <c r="H552">
         <v>0.04252234435937807</v>
       </c>
       <c r="I552">
-        <v>0.4116276590787221</v>
+        <v>0.002576583998595741</v>
       </c>
       <c r="J552">
         <v>4.252234435937807</v>
       </c>
       <c r="K552">
-        <v>41.16276590787221</v>
+        <v>0.2576583998595741</v>
       </c>
       <c r="L552">
-        <v>0.1033029326905505</v>
+        <v>16.50337981705743</v>
       </c>
     </row>
     <row r="553">
@@ -23579,28 +23579,28 @@
         <v>0.227</v>
       </c>
       <c r="E553">
-        <v>4.88</v>
+        <v>0.04651639344262296</v>
       </c>
       <c r="F553">
         <v>0.947</v>
       </c>
       <c r="G553">
-        <v>12.3</v>
+        <v>0.07699186991869918</v>
       </c>
       <c r="H553">
         <v>0.04176296135216795</v>
       </c>
       <c r="I553">
-        <v>0.8286557866990349</v>
+        <v>0.007898786598893148</v>
       </c>
       <c r="J553">
         <v>4.176296135216795</v>
       </c>
       <c r="K553">
-        <v>82.8655786699035</v>
+        <v>0.7898786598893148</v>
       </c>
       <c r="L553">
-        <v>0.05039844290297114</v>
+        <v>5.287262901623417</v>
       </c>
     </row>
     <row r="554">
@@ -23621,28 +23621,28 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="E554">
-        <v>12.01</v>
+        <v>0.04721065778517902</v>
       </c>
       <c r="F554">
         <v>0.227</v>
       </c>
       <c r="G554">
-        <v>4.88</v>
+        <v>0.04651639344262296</v>
       </c>
       <c r="H554">
         <v>0.03813958115186789</v>
       </c>
       <c r="I554">
-        <v>0.6630534125523257</v>
+        <v>0.002606426956977766</v>
       </c>
       <c r="J554">
         <v>3.813958115186789</v>
       </c>
       <c r="K554">
-        <v>66.30534125523258</v>
+        <v>0.2606426956977766</v>
       </c>
       <c r="L554">
-        <v>0.05752112941407726</v>
+        <v>14.63289851640114</v>
       </c>
     </row>
     <row r="555">
@@ -23663,28 +23663,28 @@
         <v>0.797</v>
       </c>
       <c r="E555">
-        <v>9.390000000000001</v>
+        <v>0.08487752928647498</v>
       </c>
       <c r="F555">
         <v>0.5669999999999999</v>
       </c>
       <c r="G555">
-        <v>12.01</v>
+        <v>0.04721065778517902</v>
       </c>
       <c r="H555">
         <v>0.03731164845888824</v>
       </c>
       <c r="I555">
-        <v>0.3387714377792488</v>
+        <v>0.003062202623166073</v>
       </c>
       <c r="J555">
         <v>3.731164845888824</v>
       </c>
       <c r="K555">
-        <v>33.87714377792489</v>
+        <v>0.3062202623166073</v>
       </c>
       <c r="L555">
-        <v>0.1101381176154566</v>
+        <v>12.18457856988934</v>
       </c>
     </row>
     <row r="556">
@@ -23705,28 +23705,28 @@
         <v>0.221</v>
       </c>
       <c r="E556">
-        <v>3.36</v>
+        <v>0.06577380952380953</v>
       </c>
       <c r="F556">
         <v>0.797</v>
       </c>
       <c r="G556">
-        <v>9.390000000000001</v>
+        <v>0.08487752928647498</v>
       </c>
       <c r="H556">
         <v>0.04074212356383078</v>
       </c>
       <c r="I556">
-        <v>0.5727917338533122</v>
+        <v>0.01121270666645249</v>
       </c>
       <c r="J556">
         <v>4.074212356383078</v>
       </c>
       <c r="K556">
-        <v>57.27917338533122</v>
+        <v>1.121270666645249</v>
       </c>
       <c r="L556">
-        <v>0.07112903548685733</v>
+        <v>3.633567235440834</v>
       </c>
     </row>
     <row r="557">
@@ -23747,28 +23747,28 @@
         <v>0.574</v>
       </c>
       <c r="E557">
-        <v>9.609999999999999</v>
+        <v>0.05972944849115504</v>
       </c>
       <c r="F557">
         <v>0.221</v>
       </c>
       <c r="G557">
-        <v>3.36</v>
+        <v>0.06577380952380953</v>
       </c>
       <c r="H557">
         <v>0.03852525126026762</v>
       </c>
       <c r="I557">
-        <v>0.5283898594139756</v>
+        <v>0.003284124338305486</v>
       </c>
       <c r="J557">
         <v>3.852525126026762</v>
       </c>
       <c r="K557">
-        <v>52.83898594139757</v>
+        <v>0.3284124338305486</v>
       </c>
       <c r="L557">
-        <v>0.07291065597472866</v>
+        <v>11.73075294711453</v>
       </c>
     </row>
     <row r="558">
@@ -23789,28 +23789,28 @@
         <v>1.037</v>
       </c>
       <c r="E558">
-        <v>16.19</v>
+        <v>0.06405188387893761</v>
       </c>
       <c r="F558">
         <v>0.574</v>
       </c>
       <c r="G558">
-        <v>9.609999999999999</v>
+        <v>0.05972944849115504</v>
       </c>
       <c r="H558">
         <v>0.04547087663482863</v>
       </c>
       <c r="I558">
-        <v>0.5193352200760271</v>
+        <v>0.002054626263777158</v>
       </c>
       <c r="J558">
         <v>4.547087663482863</v>
       </c>
       <c r="K558">
-        <v>51.9335220076027</v>
+        <v>0.2054626263777158</v>
       </c>
       <c r="L558">
-        <v>0.08755592703335624</v>
+        <v>22.13097215609249</v>
       </c>
     </row>
     <row r="559">

--- a/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
+++ b/Tools and meta-analysis theory/Delta method/deltamethod_output.xlsx
@@ -6894,11 +6894,11 @@
         </is>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D156">
@@ -6914,19 +6914,19 @@
         <v>0.03</v>
       </c>
       <c r="H156">
-        <v>0.02776999696716054</v>
+        <v>0.02583063914096329</v>
       </c>
       <c r="I156">
-        <v>0.007660315087232175</v>
+        <v>0.003612079715285082</v>
       </c>
       <c r="J156">
-        <v>2.776999696716054</v>
+        <v>2.583063914096329</v>
       </c>
       <c r="K156">
-        <v>0.7660315087232176</v>
+        <v>0.3612079715285083</v>
       </c>
       <c r="L156">
-        <v>3.625176856425417</v>
+        <v>7.151181916516648</v>
       </c>
     </row>
     <row r="157">
@@ -6936,11 +6936,11 @@
         </is>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2.9000000000000004</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D157">
@@ -6956,19 +6956,19 @@
         <v>0.02</v>
       </c>
       <c r="H157">
-        <v>0.04463383967177337</v>
+        <v>0.03042928712297144</v>
       </c>
       <c r="I157">
-        <v>0.008976669261903105</v>
+        <v>0.002026808196544004</v>
       </c>
       <c r="J157">
-        <v>4.463383967177337</v>
+        <v>3.042928712297144</v>
       </c>
       <c r="K157">
-        <v>0.8976669261903105</v>
+        <v>0.2026808196544004</v>
       </c>
       <c r="L157">
-        <v>4.97220498712133</v>
+        <v>15.01340243978571</v>
       </c>
     </row>
     <row r="158">
@@ -6978,11 +6978,11 @@
         </is>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1.9000000000000004</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D158">
@@ -6998,19 +6998,19 @@
         <v>0.02</v>
       </c>
       <c r="H158">
-        <v>0.1307593421488706</v>
+        <v>0.04371646809885044</v>
       </c>
       <c r="I158">
-        <v>0.01332779261946919</v>
+        <v>0.001360777663753391</v>
       </c>
       <c r="J158">
-        <v>13.07593421488706</v>
+        <v>4.371646809885044</v>
       </c>
       <c r="K158">
-        <v>1.332779261946919</v>
+        <v>0.1360777663753391</v>
       </c>
       <c r="L158">
-        <v>9.811027668442096</v>
+        <v>32.12609176598965</v>
       </c>
     </row>
     <row r="159">
@@ -7020,11 +7020,11 @@
         </is>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1.8999999999999986</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D159">
@@ -7040,19 +7040,19 @@
         <v>0.02</v>
       </c>
       <c r="H159">
-        <v>0.1141572966851014</v>
+        <v>0.04833598122596161</v>
       </c>
       <c r="I159">
-        <v>0.01721734640035351</v>
+        <v>0.001487423355882465</v>
       </c>
       <c r="J159">
-        <v>11.41572966851014</v>
+        <v>4.833598122596161</v>
       </c>
       <c r="K159">
-        <v>1.721734640035351</v>
+        <v>0.1487423355882465</v>
       </c>
       <c r="L159">
-        <v>6.630365332183682</v>
+        <v>32.49645168929368</v>
       </c>
     </row>
     <row r="160">
@@ -7062,11 +7062,11 @@
         </is>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1.8500000000000014</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D160">
@@ -7082,19 +7082,19 @@
         <v>0.03</v>
       </c>
       <c r="H160">
-        <v>0.1561953355564145</v>
+        <v>0.05334177976485388</v>
       </c>
       <c r="I160">
-        <v>0.02027159836717569</v>
+        <v>0.001090415921081629</v>
       </c>
       <c r="J160">
-        <v>15.61953355564145</v>
+        <v>5.334177976485388</v>
       </c>
       <c r="K160">
-        <v>2.02715983671757</v>
+        <v>0.1090415921081629</v>
       </c>
       <c r="L160">
-        <v>7.705131718144639</v>
+        <v>48.91874626329918</v>
       </c>
     </row>
     <row r="161">
@@ -7104,11 +7104,11 @@
         </is>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1.8699999999999992</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D161">
@@ -7124,19 +7124,19 @@
         <v>0.03</v>
       </c>
       <c r="H161">
-        <v>0.1510941685265752</v>
+        <v>0.05543920456722629</v>
       </c>
       <c r="I161">
-        <v>0.02007373576926261</v>
+        <v>0.0008346471988880426</v>
       </c>
       <c r="J161">
-        <v>15.10941685265752</v>
+        <v>5.543920456722629</v>
       </c>
       <c r="K161">
-        <v>2.007373576926261</v>
+        <v>0.08346471988880426</v>
       </c>
       <c r="L161">
-        <v>7.526958123954896</v>
+        <v>66.42232148036329</v>
       </c>
     </row>
     <row r="162">
@@ -7146,11 +7146,11 @@
         </is>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D162">
@@ -7166,19 +7166,19 @@
         <v>0.14</v>
       </c>
       <c r="H162">
-        <v>0.001854780690824898</v>
+        <v>0.06059726576506375</v>
       </c>
       <c r="I162">
-        <v>0.04415930396337595</v>
+        <v>0.02054808413553775</v>
       </c>
       <c r="J162">
-        <v>0.1854780690824898</v>
+        <v>6.059726576506375</v>
       </c>
       <c r="K162">
-        <v>4.415930396337594</v>
+        <v>2.054808413553775</v>
       </c>
       <c r="L162">
-        <v>0.04200203636278286</v>
+        <v>2.94904699461792</v>
       </c>
     </row>
     <row r="163">
@@ -7188,11 +7188,11 @@
         </is>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2.9000000000000004</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D163">
@@ -7208,19 +7208,19 @@
         <v>0.13</v>
       </c>
       <c r="H163">
-        <v>0.1799845740478832</v>
+        <v>0.087618499403884</v>
       </c>
       <c r="I163">
-        <v>0.04810424554788136</v>
+        <v>0.009720798641250241</v>
       </c>
       <c r="J163">
-        <v>17.99845740478832</v>
+        <v>8.7618499403884</v>
       </c>
       <c r="K163">
-        <v>4.810424554788137</v>
+        <v>0.9720798641250241</v>
       </c>
       <c r="L163">
-        <v>3.741552788074236</v>
+        <v>9.013508317318148</v>
       </c>
     </row>
     <row r="164">
@@ -7230,11 +7230,11 @@
         </is>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1.9000000000000004</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D164">
@@ -7250,19 +7250,19 @@
         <v>0.14</v>
       </c>
       <c r="H164">
-        <v>0.2581480361540416</v>
+        <v>0.09617722100753023</v>
       </c>
       <c r="I164">
-        <v>0.07892730754382285</v>
+        <v>0.00525114836410793</v>
       </c>
       <c r="J164">
-        <v>25.81480361540416</v>
+        <v>9.617722100753024</v>
       </c>
       <c r="K164">
-        <v>7.892730754382285</v>
+        <v>0.525114836410793</v>
       </c>
       <c r="L164">
-        <v>3.270706225607784</v>
+        <v>18.3154644162999</v>
       </c>
     </row>
     <row r="165">
@@ -7272,11 +7272,11 @@
         </is>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1.8999999999999986</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D165">
@@ -7292,19 +7292,19 @@
         <v>0.12</v>
       </c>
       <c r="H165">
-        <v>0.1656169365966831</v>
+        <v>0.09097484823570245</v>
       </c>
       <c r="I165">
-        <v>0.07781124759342981</v>
+        <v>0.003837407134138946</v>
       </c>
       <c r="J165">
-        <v>16.56169365966831</v>
+        <v>9.097484823570245</v>
       </c>
       <c r="K165">
-        <v>7.781124759342981</v>
+        <v>0.3837407134138946</v>
       </c>
       <c r="L165">
-        <v>2.128444687868845</v>
+        <v>23.70737455151883</v>
       </c>
     </row>
     <row r="166">
@@ -7314,11 +7314,11 @@
         </is>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1.8500000000000014</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D166">
@@ -7334,19 +7334,19 @@
         <v>0.12</v>
       </c>
       <c r="H166">
-        <v>0.2228911175196944</v>
+        <v>0.08888059119759428</v>
       </c>
       <c r="I166">
-        <v>0.07416031855259921</v>
+        <v>0.002597295191077616</v>
       </c>
       <c r="J166">
-        <v>22.28911175196944</v>
+        <v>8.888059119759429</v>
       </c>
       <c r="K166">
-        <v>7.416031855259921</v>
+        <v>0.2597295191077617</v>
       </c>
       <c r="L166">
-        <v>3.005530745685859</v>
+        <v>34.2204426754888</v>
       </c>
     </row>
     <row r="167">
@@ -7356,11 +7356,11 @@
         </is>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1.8699999999999992</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D167">
@@ -7376,19 +7376,19 @@
         <v>0.11</v>
       </c>
       <c r="H167">
-        <v>0.2921775956362054</v>
+        <v>0.08894038457169606</v>
       </c>
       <c r="I167">
-        <v>0.06656037445796321</v>
+        <v>0.001915186785349299</v>
       </c>
       <c r="J167">
-        <v>29.21775956362054</v>
+        <v>8.894038457169607</v>
       </c>
       <c r="K167">
-        <v>6.656037445796321</v>
+        <v>0.1915186785349299</v>
       </c>
       <c r="L167">
-        <v>4.389662738762576</v>
+        <v>46.4395354291643</v>
       </c>
     </row>
     <row r="168">
@@ -7398,11 +7398,11 @@
         </is>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D168">
@@ -7418,19 +7418,19 @@
         <v>0.02</v>
       </c>
       <c r="H168">
-        <v>0.02861867558069298</v>
+        <v>0.02816781695331816</v>
       </c>
       <c r="I168">
-        <v>0.005992899588095934</v>
+        <v>0.003579348361891447</v>
       </c>
       <c r="J168">
-        <v>2.861867558069298</v>
+        <v>2.816781695331816</v>
       </c>
       <c r="K168">
-        <v>0.5992899588095935</v>
+        <v>0.3579348361891447</v>
       </c>
       <c r="L168">
-        <v>4.775430517397623</v>
+        <v>7.869537721786136</v>
       </c>
     </row>
     <row r="169">
@@ -7440,11 +7440,11 @@
         </is>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2.9000000000000004</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D169">
@@ -7460,19 +7460,19 @@
         <v>0.02</v>
       </c>
       <c r="H169">
-        <v>0.04431637484089235</v>
+        <v>0.03164037831480759</v>
       </c>
       <c r="I169">
-        <v>0.008981854775334763</v>
+        <v>0.002010211181439609</v>
       </c>
       <c r="J169">
-        <v>4.431637484089235</v>
+        <v>3.164037831480759</v>
       </c>
       <c r="K169">
-        <v>0.8981854775334762</v>
+        <v>0.201021118143961</v>
       </c>
       <c r="L169">
-        <v>4.933989242688533</v>
+        <v>15.7398280374445</v>
       </c>
     </row>
     <row r="170">
@@ -7482,11 +7482,11 @@
         </is>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1.9000000000000004</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D170">
@@ -7502,19 +7502,19 @@
         <v>0.02</v>
       </c>
       <c r="H170">
-        <v>0.1246186207185833</v>
+        <v>0.04364840924816327</v>
       </c>
       <c r="I170">
-        <v>0.01339327078667405</v>
+        <v>0.001361576528699496</v>
       </c>
       <c r="J170">
-        <v>12.46186207185833</v>
+        <v>4.364840924816327</v>
       </c>
       <c r="K170">
-        <v>1.339327078667405</v>
+        <v>0.1361576528699496</v>
       </c>
       <c r="L170">
-        <v>9.304569638252628</v>
+        <v>32.05725739841731</v>
       </c>
     </row>
     <row r="171">
@@ -7524,11 +7524,11 @@
         </is>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1.8999999999999986</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D171">
@@ -7544,19 +7544,19 @@
         <v>0.02</v>
       </c>
       <c r="H171">
-        <v>0.1002307546521599</v>
+        <v>0.04683682271467493</v>
       </c>
       <c r="I171">
-        <v>0.01741336377130418</v>
+        <v>0.001511023127474993</v>
       </c>
       <c r="J171">
-        <v>10.02307546521599</v>
+        <v>4.683682271467493</v>
       </c>
       <c r="K171">
-        <v>1.741336377130418</v>
+        <v>0.1511023127474993</v>
       </c>
       <c r="L171">
-        <v>5.755967426427518</v>
+        <v>30.99676097806787</v>
       </c>
     </row>
     <row r="172">
@@ -7566,11 +7566,11 @@
         </is>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1.8500000000000014</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D172">
@@ -7586,19 +7586,19 @@
         <v>0.03</v>
       </c>
       <c r="H172">
-        <v>0.1325775850709408</v>
+        <v>0.05041818775781315</v>
       </c>
       <c r="I172">
-        <v>0.02063035761432828</v>
+        <v>0.001130535467917572</v>
       </c>
       <c r="J172">
-        <v>13.25775850709407</v>
+        <v>5.041818775781315</v>
       </c>
       <c r="K172">
-        <v>2.063035761432829</v>
+        <v>0.1130535467917572</v>
       </c>
       <c r="L172">
-        <v>6.426334799880657</v>
+        <v>44.59673242333798</v>
       </c>
     </row>
     <row r="173">
@@ -7608,11 +7608,11 @@
         </is>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1.8699999999999992</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D173">
@@ -7628,19 +7628,19 @@
         <v>0.03</v>
       </c>
       <c r="H173">
-        <v>0.1291474433343347</v>
+        <v>0.05187252026739086</v>
       </c>
       <c r="I173">
-        <v>0.0204127527743442</v>
+        <v>0.0008781215385135165</v>
       </c>
       <c r="J173">
-        <v>12.91474433343347</v>
+        <v>5.187252026739086</v>
       </c>
       <c r="K173">
-        <v>2.04127527743442</v>
+        <v>0.08781215385135165</v>
       </c>
       <c r="L173">
-        <v>6.326801914568517</v>
+        <v>59.07214205814907</v>
       </c>
     </row>
     <row r="174">
@@ -7650,11 +7650,11 @@
         </is>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D174">
@@ -7670,19 +7670,19 @@
         <v>0.13</v>
       </c>
       <c r="H174">
-        <v>0.002085833113732116</v>
+        <v>0.06075528085934945</v>
       </c>
       <c r="I174">
-        <v>0.04086179769925941</v>
+        <v>0.01895616287462724</v>
       </c>
       <c r="J174">
-        <v>0.2085833113732116</v>
+        <v>6.075528085934945</v>
       </c>
       <c r="K174">
-        <v>4.086179769925941</v>
+        <v>1.895616287462724</v>
       </c>
       <c r="L174">
-        <v>0.05104604376644741</v>
+        <v>3.205041086699576</v>
       </c>
     </row>
     <row r="175">
@@ -7692,11 +7692,11 @@
         </is>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2.9000000000000004</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D175">
@@ -7712,19 +7712,19 @@
         <v>0.12</v>
       </c>
       <c r="H175">
-        <v>0.1797327338602295</v>
+        <v>0.087618499403884</v>
       </c>
       <c r="I175">
-        <v>0.0464464540943656</v>
+        <v>0.009720798641250241</v>
       </c>
       <c r="J175">
-        <v>17.97327338602295</v>
+        <v>8.7618499403884</v>
       </c>
       <c r="K175">
-        <v>4.64464540943656</v>
+        <v>0.9720798641250241</v>
       </c>
       <c r="L175">
-        <v>3.869676111228322</v>
+        <v>9.013508317318148</v>
       </c>
     </row>
     <row r="176">
@@ -7734,11 +7734,11 @@
         </is>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1.9000000000000004</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D176">
@@ -7754,19 +7754,19 @@
         <v>0.14</v>
       </c>
       <c r="H176">
-        <v>0.2577199271767741</v>
+        <v>0.09613345357484082</v>
       </c>
       <c r="I176">
-        <v>0.07366593523807294</v>
+        <v>0.004377529766672688</v>
       </c>
       <c r="J176">
-        <v>25.77199271767741</v>
+        <v>9.613345357484082</v>
       </c>
       <c r="K176">
-        <v>7.366593523807293</v>
+        <v>0.4377529766672688</v>
       </c>
       <c r="L176">
-        <v>3.498495286103095</v>
+        <v>21.96066245093995</v>
       </c>
     </row>
     <row r="177">
@@ -7776,11 +7776,11 @@
         </is>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1.8999999999999986</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D177">
@@ -7796,19 +7796,19 @@
         <v>0.1</v>
       </c>
       <c r="H177">
-        <v>0.1656169365966831</v>
+        <v>0.0909428646863728</v>
       </c>
       <c r="I177">
-        <v>0.08265855621997879</v>
+        <v>0.004798306055094884</v>
       </c>
       <c r="J177">
-        <v>16.56169365966831</v>
+        <v>9.09428646863728</v>
       </c>
       <c r="K177">
-        <v>8.265855621997879</v>
+        <v>0.4798306055094884</v>
       </c>
       <c r="L177">
-        <v>2.003627260993134</v>
+        <v>18.95311879695728</v>
       </c>
     </row>
     <row r="178">
@@ -7818,11 +7818,11 @@
         </is>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1.8500000000000014</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D178">
@@ -7838,19 +7838,19 @@
         <v>0.15</v>
       </c>
       <c r="H178">
-        <v>0.2228911175196944</v>
+        <v>0.08885697609442644</v>
       </c>
       <c r="I178">
-        <v>0.1067418736857412</v>
+        <v>0.004251317853824058</v>
       </c>
       <c r="J178">
-        <v>22.28911175196944</v>
+        <v>8.885697609442644</v>
       </c>
       <c r="K178">
-        <v>10.67418736857412</v>
+        <v>0.4251317853824059</v>
       </c>
       <c r="L178">
-        <v>2.088131956310869</v>
+        <v>20.9010427236109</v>
       </c>
     </row>
     <row r="179">
@@ -7860,11 +7860,11 @@
         </is>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1.8699999999999992</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D179">
@@ -7880,19 +7880,19 @@
         <v>0.18</v>
       </c>
       <c r="H179">
-        <v>0.2921775956362054</v>
+        <v>0.08892297169456853</v>
       </c>
       <c r="I179">
-        <v>0.1424222864844727</v>
+        <v>0.004876190379901471</v>
       </c>
       <c r="J179">
-        <v>29.21775956362054</v>
+        <v>8.892297169456853</v>
       </c>
       <c r="K179">
-        <v>14.24222864844728</v>
+        <v>0.4876190379901471</v>
       </c>
       <c r="L179">
-        <v>2.051487887522851</v>
+        <v>18.23615666465535</v>
       </c>
     </row>
     <row r="180">
@@ -10800,11 +10800,11 @@
         </is>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D249">
@@ -10820,19 +10820,19 @@
         <v>0.1310861423220974</v>
       </c>
       <c r="H249">
-        <v>0.0759106330355801</v>
+        <v>0.04885867158874491</v>
       </c>
       <c r="I249">
-        <v>0.03553331779508691</v>
+        <v>0.006712104054796181</v>
       </c>
       <c r="J249">
-        <v>7.59106330355801</v>
+        <v>4.885867158874491</v>
       </c>
       <c r="K249">
-        <v>3.553331779508691</v>
+        <v>0.6712104054796182</v>
       </c>
       <c r="L249">
-        <v>2.136322689407744</v>
+        <v>7.279188640383576</v>
       </c>
     </row>
     <row r="250">
@@ -10842,11 +10842,11 @@
         </is>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D250">
@@ -10862,19 +10862,19 @@
         <v>0.1189655172413793</v>
       </c>
       <c r="H250">
-        <v>0.1934831919273368</v>
+        <v>0.06421266112280444</v>
       </c>
       <c r="I250">
-        <v>0.04209997673296891</v>
+        <v>0.004292201089144836</v>
       </c>
       <c r="J250">
-        <v>19.34831919273368</v>
+        <v>6.421266112280444</v>
       </c>
       <c r="K250">
-        <v>4.209997673296892</v>
+        <v>0.4292201089144836</v>
       </c>
       <c r="L250">
-        <v>4.595802823230971</v>
+        <v>14.96031052347502</v>
       </c>
     </row>
     <row r="251">
@@ -10926,11 +10926,11 @@
         </is>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D252">
@@ -10946,19 +10946,19 @@
         <v>0.08644859813084112</v>
       </c>
       <c r="H252">
-        <v>0.08385147158043438</v>
+        <v>0.05219047997422743</v>
       </c>
       <c r="I252">
-        <v>0.02463218973609471</v>
+        <v>0.004969022337540626</v>
       </c>
       <c r="J252">
-        <v>8.385147158043438</v>
+        <v>5.219047997422743</v>
       </c>
       <c r="K252">
-        <v>2.463218973609471</v>
+        <v>0.4969022337540626</v>
       </c>
       <c r="L252">
-        <v>3.404141997881855</v>
+        <v>10.50316871790491</v>
       </c>
     </row>
     <row r="253">
@@ -10968,11 +10968,11 @@
         </is>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D253">
@@ -10988,19 +10988,19 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="H253">
-        <v>0.2535896814815497</v>
+        <v>0.074089907926705</v>
       </c>
       <c r="I253">
-        <v>0.06517635995782065</v>
+        <v>0.008278936035658416</v>
       </c>
       <c r="J253">
-        <v>25.35896814815497</v>
+        <v>7.4089907926705</v>
       </c>
       <c r="K253">
-        <v>6.517635995782064</v>
+        <v>0.8278936035658416</v>
       </c>
       <c r="L253">
-        <v>3.890823016898491</v>
+        <v>8.949206468994381</v>
       </c>
     </row>
     <row r="254">
@@ -11052,11 +11052,11 @@
         </is>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D255">
@@ -11072,19 +11072,19 @@
         <v>0.1826086956521739</v>
       </c>
       <c r="H255">
-        <v>0.04224663545632112</v>
+        <v>0.04365356767031847</v>
       </c>
       <c r="I255">
-        <v>0.05875790953137356</v>
+        <v>0.01147712867672637</v>
       </c>
       <c r="J255">
-        <v>4.224663545632112</v>
+        <v>4.365356767031847</v>
       </c>
       <c r="K255">
-        <v>5.875790953137356</v>
+        <v>1.147712867672637</v>
       </c>
       <c r="L255">
-        <v>0.7189948688314668</v>
+        <v>3.803526901187432</v>
       </c>
     </row>
     <row r="256">
@@ -11094,11 +11094,11 @@
         </is>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D256">
@@ -11114,19 +11114,19 @@
         <v>0.1935483870967742</v>
       </c>
       <c r="H256">
-        <v>0.3873001091798343</v>
+        <v>0.08831198262449647</v>
       </c>
       <c r="I256">
-        <v>0.09963988113367354</v>
+        <v>0.0128792168863935</v>
       </c>
       <c r="J256">
-        <v>38.73001091798343</v>
+        <v>8.831198262449647</v>
       </c>
       <c r="K256">
-        <v>9.963988113367355</v>
+        <v>1.28792168863935</v>
       </c>
       <c r="L256">
-        <v>3.886998908200677</v>
+        <v>6.856937297002535</v>
       </c>
     </row>
     <row r="257">
@@ -11178,11 +11178,11 @@
         </is>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D258">
@@ -11198,19 +11198,19 @@
         <v>0.3112244897959184</v>
       </c>
       <c r="H258">
-        <v>0.08969454835003732</v>
+        <v>0.06600493542018016</v>
       </c>
       <c r="I258">
-        <v>0.08004517998107193</v>
+        <v>0.0131191742594598</v>
       </c>
       <c r="J258">
-        <v>8.969454835003731</v>
+        <v>6.600493542018016</v>
       </c>
       <c r="K258">
-        <v>8.004517998107193</v>
+        <v>1.31191742594598</v>
       </c>
       <c r="L258">
-        <v>1.120549024578958</v>
+        <v>5.031180630334733</v>
       </c>
     </row>
     <row r="259">
@@ -11220,11 +11220,11 @@
         </is>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D259">
@@ -11240,19 +11240,19 @@
         <v>0.2734584450402145</v>
       </c>
       <c r="H259">
-        <v>0.2231612006930872</v>
+        <v>0.07767775539242883</v>
       </c>
       <c r="I259">
-        <v>0.09009635790999707</v>
+        <v>0.00804629870762249</v>
       </c>
       <c r="J259">
-        <v>22.31612006930872</v>
+        <v>7.767775539242883</v>
       </c>
       <c r="K259">
-        <v>9.009635790999706</v>
+        <v>0.804629870762249</v>
       </c>
       <c r="L259">
-        <v>2.4769170016397</v>
+        <v>9.653849330604947</v>
       </c>
     </row>
     <row r="260">
@@ -11304,11 +11304,11 @@
         </is>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D261">
@@ -11324,19 +11324,19 @@
         <v>0.1353383458646616</v>
       </c>
       <c r="H261">
-        <v>0.1029743904822287</v>
+        <v>0.05699844292981404</v>
       </c>
       <c r="I261">
-        <v>0.03559313980561166</v>
+        <v>0.007041336165540353</v>
       </c>
       <c r="J261">
-        <v>10.29743904822287</v>
+        <v>5.699844292981404</v>
       </c>
       <c r="K261">
-        <v>3.559313980561166</v>
+        <v>0.7041336165540353</v>
       </c>
       <c r="L261">
-        <v>2.893096564242798</v>
+        <v>8.094833365400042</v>
       </c>
     </row>
     <row r="262">
@@ -11346,11 +11346,11 @@
         </is>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D262">
@@ -11366,19 +11366,19 @@
         <v>0.1348314606741573</v>
       </c>
       <c r="H262">
-        <v>0.3480997498879252</v>
+        <v>0.08878609080926925</v>
       </c>
       <c r="I262">
-        <v>0.07413335993431229</v>
+        <v>0.009006989176214581</v>
       </c>
       <c r="J262">
-        <v>34.80997498879253</v>
+        <v>8.878609080926925</v>
       </c>
       <c r="K262">
-        <v>7.413335993431229</v>
+        <v>0.9006989176214582</v>
       </c>
       <c r="L262">
-        <v>4.695588466465943</v>
+        <v>9.857466137933551</v>
       </c>
     </row>
     <row r="263">
@@ -11430,11 +11430,11 @@
         </is>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D264">
@@ -11450,19 +11450,19 @@
         <v>0.1511111111111111</v>
       </c>
       <c r="H264">
-        <v>0.03555807634162211</v>
+        <v>0.05647491591813569</v>
       </c>
       <c r="I264">
-        <v>0.05339576619632385</v>
+        <v>0.009594838179717874</v>
       </c>
       <c r="J264">
-        <v>3.555807634162211</v>
+        <v>5.647491591813569</v>
       </c>
       <c r="K264">
-        <v>5.339576619632385</v>
+        <v>0.9594838179717874</v>
       </c>
       <c r="L264">
-        <v>0.6659343778471746</v>
+        <v>5.885968565631013</v>
       </c>
     </row>
     <row r="265">
@@ -11472,11 +11472,11 @@
         </is>
       </c>
       <c r="B265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D265">
@@ -11492,19 +11492,19 @@
         <v>0.1828193832599119</v>
       </c>
       <c r="H265">
-        <v>0.3064765561724587</v>
+        <v>0.08316442454385897</v>
       </c>
       <c r="I265">
-        <v>0.07254747157875473</v>
+        <v>0.008176599264468971</v>
       </c>
       <c r="J265">
-        <v>30.64765561724587</v>
+        <v>8.316442454385896</v>
       </c>
       <c r="K265">
-        <v>7.254747157875473</v>
+        <v>0.8176599264468971</v>
       </c>
       <c r="L265">
-        <v>4.224496726116218</v>
+        <v>10.17102854792531</v>
       </c>
     </row>
     <row r="266">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D266">
@@ -11534,19 +11534,19 @@
         <v>999</v>
       </c>
       <c r="H266">
-        <v>0.01580170904221512</v>
+        <v>0.06472084493618491</v>
       </c>
       <c r="I266">
-        <v>0.001262388205106315</v>
+        <v>0.005292729966542757</v>
       </c>
       <c r="J266">
-        <v>1.580170904221512</v>
+        <v>6.472084493618491</v>
       </c>
       <c r="K266">
-        <v>0.1262388205106315</v>
+        <v>0.5292729966542756</v>
       </c>
       <c r="L266">
-        <v>12.51731359521403</v>
+        <v>12.22825372639613</v>
       </c>
     </row>
     <row r="267">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D267">
@@ -11576,19 +11576,19 @@
         <v>0.018</v>
       </c>
       <c r="H267">
-        <v>0.006437827441237554</v>
+        <v>0.0303998196442723</v>
       </c>
       <c r="I267">
-        <v>0.001051384515477918</v>
+        <v>0.005023277609478475</v>
       </c>
       <c r="J267">
-        <v>0.6437827441237554</v>
+        <v>3.03998196442723</v>
       </c>
       <c r="K267">
-        <v>0.1051384515477918</v>
+        <v>0.5023277609478475</v>
       </c>
       <c r="L267">
-        <v>6.123190275739574</v>
+        <v>6.051789689447097</v>
       </c>
     </row>
     <row r="268">
@@ -11602,7 +11602,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D268">
@@ -11618,19 +11618,19 @@
         <v>0.016</v>
       </c>
       <c r="H268">
-        <v>0.0164351336712929</v>
+        <v>0.04442946489350508</v>
       </c>
       <c r="I268">
-        <v>0.0007830779150009962</v>
+        <v>0.002145720523664109</v>
       </c>
       <c r="J268">
-        <v>1.64351336712929</v>
+        <v>4.442946489350508</v>
       </c>
       <c r="K268">
-        <v>0.07830779150009962</v>
+        <v>0.2145720523664109</v>
       </c>
       <c r="L268">
-        <v>20.98786513634725</v>
+        <v>20.70608189813823</v>
       </c>
     </row>
     <row r="269">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D269">
@@ -11660,19 +11660,19 @@
         <v>0.016</v>
       </c>
       <c r="H269">
-        <v>0.01288050552599951</v>
+        <v>0.05252604205079781</v>
       </c>
       <c r="I269">
-        <v>0.001303019518258147</v>
+        <v>0.005416085979678205</v>
       </c>
       <c r="J269">
-        <v>1.288050552599951</v>
+        <v>5.252604205079781</v>
       </c>
       <c r="K269">
-        <v>0.1303019518258147</v>
+        <v>0.5416085979678205</v>
       </c>
       <c r="L269">
-        <v>9.885120940642498</v>
+        <v>9.698155134147008</v>
       </c>
     </row>
     <row r="270">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D270">
@@ -11702,19 +11702,19 @@
         <v>0.018</v>
       </c>
       <c r="H270">
-        <v>0.00531259046788457</v>
+        <v>0.02503470039176614</v>
       </c>
       <c r="I270">
-        <v>0.001066786141894558</v>
+        <v>0.005075999754338674</v>
       </c>
       <c r="J270">
-        <v>0.531259046788457</v>
+        <v>2.503470039176614</v>
       </c>
       <c r="K270">
-        <v>0.1066786141894558</v>
+        <v>0.5075999754338675</v>
       </c>
       <c r="L270">
-        <v>4.979995764146016</v>
+        <v>4.931974311142925</v>
       </c>
     </row>
     <row r="271">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D271">
@@ -11744,19 +11744,19 @@
         <v>0.016</v>
       </c>
       <c r="H271">
-        <v>0.01399345645347183</v>
+        <v>0.03775238396309422</v>
       </c>
       <c r="I271">
-        <v>0.0008118442405552215</v>
+        <v>0.002215644267868895</v>
       </c>
       <c r="J271">
-        <v>1.399345645347183</v>
+        <v>3.775238396309422</v>
       </c>
       <c r="K271">
-        <v>0.08118442405552215</v>
+        <v>0.2215644267868895</v>
       </c>
       <c r="L271">
-        <v>17.23662711938645</v>
+        <v>17.03900960572797</v>
       </c>
     </row>
     <row r="272">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D272">
@@ -11786,19 +11786,19 @@
         <v>0.016</v>
       </c>
       <c r="H272">
-        <v>0.02308208386810895</v>
+        <v>0.09557450583412574</v>
       </c>
       <c r="I272">
-        <v>0.003436207252535474</v>
+        <v>0.01471874494530004</v>
       </c>
       <c r="J272">
-        <v>2.308208386810895</v>
+        <v>9.557450583412574</v>
       </c>
       <c r="K272">
-        <v>0.3436207252535474</v>
+        <v>1.471874494530004</v>
       </c>
       <c r="L272">
-        <v>6.717314228086032</v>
+        <v>6.493386915074195</v>
       </c>
     </row>
     <row r="273">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D273">
@@ -11828,19 +11828,19 @@
         <v>0.053</v>
       </c>
       <c r="H273">
-        <v>0.01127767232053078</v>
+        <v>0.05372824302963108</v>
       </c>
       <c r="I273">
-        <v>0.002160849727180621</v>
+        <v>0.01050726168263165</v>
       </c>
       <c r="J273">
-        <v>1.127767232053078</v>
+        <v>5.372824302963108</v>
       </c>
       <c r="K273">
-        <v>0.2160849727180621</v>
+        <v>1.050726168263165</v>
       </c>
       <c r="L273">
-        <v>5.219091442904445</v>
+        <v>5.113439129287424</v>
       </c>
     </row>
     <row r="274">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D274">
@@ -11870,19 +11870,19 @@
         <v>0.035</v>
       </c>
       <c r="H274">
-        <v>0.02093230151342373</v>
+        <v>0.05679768375088701</v>
       </c>
       <c r="I274">
-        <v>0.00132838463495555</v>
+        <v>0.003666802204926504</v>
       </c>
       <c r="J274">
-        <v>2.093230151342373</v>
+        <v>5.679768375088701</v>
       </c>
       <c r="K274">
-        <v>0.132838463495555</v>
+        <v>0.3666802204926504</v>
       </c>
       <c r="L274">
-        <v>15.7577112551623</v>
+        <v>15.48970480997773</v>
       </c>
     </row>
     <row r="275">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D275">
@@ -11912,19 +11912,19 @@
         <v>0.029</v>
       </c>
       <c r="H275">
-        <v>0.02138092563355887</v>
+        <v>0.08830587204638318</v>
       </c>
       <c r="I275">
-        <v>0.0006603186744463142</v>
+        <v>0.002814341536194423</v>
       </c>
       <c r="J275">
-        <v>2.138092563355887</v>
+        <v>8.830587204638318</v>
       </c>
       <c r="K275">
-        <v>0.06603186744463142</v>
+        <v>0.2814341536194423</v>
       </c>
       <c r="L275">
-        <v>32.3797076487153</v>
+        <v>31.37709866080829</v>
       </c>
     </row>
     <row r="276">
@@ -11938,7 +11938,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D276">
@@ -11954,19 +11954,19 @@
         <v>0.01</v>
       </c>
       <c r="H276">
-        <v>0.01103032521143499</v>
+        <v>0.05252604205079781</v>
       </c>
       <c r="I276">
-        <v>0.004211594101591373</v>
+        <v>0.02046076925656211</v>
       </c>
       <c r="J276">
-        <v>1.103032521143499</v>
+        <v>5.252604205079781</v>
       </c>
       <c r="K276">
-        <v>0.4211594101591373</v>
+        <v>2.046076925656211</v>
       </c>
       <c r="L276">
-        <v>2.619038051949764</v>
+        <v>2.56715871198009</v>
       </c>
     </row>
     <row r="277">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D277">
@@ -11996,19 +11996,19 @@
         <v>0.068</v>
       </c>
       <c r="H277">
-        <v>0.02000995078903167</v>
+        <v>0.05425359234869997</v>
       </c>
       <c r="I277">
-        <v>0.002925192411676484</v>
+        <v>0.0080623909101685</v>
       </c>
       <c r="J277">
-        <v>2.000995078903167</v>
+        <v>5.425359234869997</v>
       </c>
       <c r="K277">
-        <v>0.2925192411676484</v>
+        <v>0.8062390910168501</v>
       </c>
       <c r="L277">
-        <v>6.840558832696953</v>
+        <v>6.729218783013102</v>
       </c>
     </row>
     <row r="278">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D278">
@@ -12038,19 +12038,19 @@
         <v>0.063</v>
       </c>
       <c r="H278">
-        <v>0.01677838513019414</v>
+        <v>0.06882159843166558</v>
       </c>
       <c r="I278">
-        <v>0.0006939519418032991</v>
+        <v>0.002917885881604328</v>
       </c>
       <c r="J278">
-        <v>1.677838513019414</v>
+        <v>6.882159843166558</v>
       </c>
       <c r="K278">
-        <v>0.06939519418032991</v>
+        <v>0.2917885881604328</v>
       </c>
       <c r="L278">
-        <v>24.17802173244726</v>
+        <v>23.5861172177939</v>
       </c>
     </row>
     <row r="279">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D279">
@@ -12080,19 +12080,19 @@
         <v>0.01</v>
       </c>
       <c r="H279">
-        <v>0.01034603563185343</v>
+        <v>0.04920574856226789</v>
       </c>
       <c r="I279">
-        <v>0.008560136479997768</v>
+        <v>0.04148374821155287</v>
       </c>
       <c r="J279">
-        <v>1.034603563185343</v>
+        <v>4.920574856226789</v>
       </c>
       <c r="K279">
-        <v>0.8560136479997769</v>
+        <v>4.148374821155286</v>
       </c>
       <c r="L279">
-        <v>1.208629752110697</v>
+        <v>1.186145193807837</v>
       </c>
     </row>
     <row r="280">
@@ -12106,7 +12106,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D280">
@@ -12122,19 +12122,19 @@
         <v>0.137</v>
       </c>
       <c r="H280">
-        <v>0.01803129439651108</v>
+        <v>0.04880884817015163</v>
       </c>
       <c r="I280">
-        <v>0.007313992676684176</v>
+        <v>0.02009363307914265</v>
       </c>
       <c r="J280">
-        <v>1.803129439651108</v>
+        <v>4.880884817015163</v>
       </c>
       <c r="K280">
-        <v>0.7313992676684176</v>
+        <v>2.009363307914265</v>
       </c>
       <c r="L280">
-        <v>2.465314800490835</v>
+        <v>2.429070341730068</v>
       </c>
     </row>
     <row r="281">
